--- a/01_개발/이구민/합본/요구사항.xlsx
+++ b/01_개발/이구민/합본/요구사항.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="참고자료" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
-  <si>
-    <t>홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>세일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상단바 (유저기능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 페이지 바로가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sale 붙은 상품 보여주기</t>
   </si>
   <si>
@@ -173,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,18 +217,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상품전체목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품상세보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품전체목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품옵션선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,34 +375,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api 로그인</t>
-  </si>
-  <si>
-    <t>김주영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰게시판 기본기능 다 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세페이지에 리뷰 나오도록 하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박종호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품업로드, 리스트 구현, 카테고리 아직 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느정도 구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 찾기 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부적인 기능 조정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 페이지 분할 혹은 다른 조치가 필요해보임(디자인 안먹힘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체상품페이지 세일은 나옴, 세일 카테고리 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저랑 연동되도록 변경해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 없음. 구현 불필요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속제한, 권한 현재 미설정, 프론트 파람값 있는 주소 어떻게 차단하는지, 프론트 권한에 따른 버튼, 페이지 보이기 안보이기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,8 +465,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +510,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -627,7 +670,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -645,7 +688,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +698,128 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -662,100 +829,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,56 +896,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="메모" xfId="4" builtinId="10"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1106,42 +1297,42 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.19921875" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="93.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>89</v>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1156,509 +1347,500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="31.3984375" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="50.625" customWidth="1"/>
+    <col min="11" max="11" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="34"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="23"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="23"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="I6" t="s">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15"/>
+      <c r="C37" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="23"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="23"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="23"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="23"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="23"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="23"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="23"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="23"/>
-      <c r="C22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="23"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="23"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="23"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="23"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="23"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="23"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="23"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="23"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="23"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="23"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="23"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="23"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="24"/>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C22:C38"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="C3:C21"/>
-    <mergeCell ref="F18:F21"/>
+  <mergeCells count="17">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C24:C36"/>
+    <mergeCell ref="B6:B37"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C6:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D24:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1674,84 +1856,84 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
